--- a/WebUI_ops/testdata/userinfo.xlsx
+++ b/WebUI_ops/testdata/userinfo.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140"/>
+    <workbookView windowWidth="28800" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adduser" sheetId="1" r:id="rId1"/>
+    <sheet name="edituser" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>case_id</t>
   </si>
@@ -61,6 +62,9 @@
     <t>{"text":"请输入用户名"}</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>adduser-003</t>
   </si>
   <si>
@@ -95,6 +99,42 @@
   </si>
   <si>
     <t>{"text":"请输入密码"}</t>
+  </si>
+  <si>
+    <t>edituser-001</t>
+  </si>
+  <si>
+    <t>修改用户名</t>
+  </si>
+  <si>
+    <t>{"username":"BeJson001","phone":"18299998888","email":"testars@163.com","password":"aa123456"}</t>
+  </si>
+  <si>
+    <t>edituser-002</t>
+  </si>
+  <si>
+    <t>修改手机号码</t>
+  </si>
+  <si>
+    <t>{"username":"BeJson001","phone":"18299997777","email":"testars@163.com","password":"aa123456"}</t>
+  </si>
+  <si>
+    <t>edituser-003</t>
+  </si>
+  <si>
+    <t>修改email地址</t>
+  </si>
+  <si>
+    <t>{"username":"BeJson001","phone":"18299997777","email":"test001@163.com","password":"aa123456"}</t>
+  </si>
+  <si>
+    <t>edituser-004</t>
+  </si>
+  <si>
+    <t>修改登陆密码</t>
+  </si>
+  <si>
+    <t>{"username":"BeJson001","phone":"18299997777","email":"test001@163.com","password":"aa123456789"}</t>
   </si>
 </sst>
 </file>
@@ -103,8 +143,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -130,9 +170,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,20 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -168,10 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,62 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +262,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,13 +309,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,49 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,115 +471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,39 +500,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,17 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -533,6 +529,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +580,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1109,58 +1149,171 @@
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:5">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
